--- a/psm1/psm1-progress.xlsx
+++ b/psm1/psm1-progress.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\@AWS\notes\psm1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37F3207-01BD-4A07-A271-85821651B3B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Narrative &amp; Exam Guide" sheetId="1" r:id="rId1"/>
     <sheet name="Scrum Open &amp; MLapshin" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="37">
   <si>
     <t>Narrative &amp; Exam Guide</t>
   </si>
@@ -124,28 +130,22 @@
     <t>lapshin-learn-5</t>
   </si>
   <si>
-    <t>Mikhail Lapshin - Real</t>
-  </si>
-  <si>
-    <t>lapshin-real-1</t>
-  </si>
-  <si>
-    <t>lapshin-real-2</t>
-  </si>
-  <si>
-    <t>lapshin-real-3</t>
-  </si>
-  <si>
-    <t>lapshin-real-4</t>
-  </si>
-  <si>
-    <t>lapshin-real-5</t>
+    <t>Scrum Artifacts</t>
+  </si>
+  <si>
+    <t>Scrum Events</t>
+  </si>
+  <si>
+    <t>Scrum Team</t>
+  </si>
+  <si>
+    <t>Scrum Theory</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -294,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -327,6 +327,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -336,9 +339,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -358,53 +358,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -541,7 +513,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -574,9 +546,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -609,6 +598,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -784,21 +790,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="23.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="11" width="5.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" customWidth="1"/>
-    <col min="14" max="23" width="5.7109375" customWidth="1"/>
-    <col min="24" max="24" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="11" width="5.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" customWidth="1"/>
+    <col min="14" max="23" width="5.6640625" customWidth="1"/>
+    <col min="24" max="24" width="7.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
@@ -846,30 +852,30 @@
       <c r="A4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="13"/>
       <c r="L4" s="7"/>
       <c r="M4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="13"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -878,23 +884,23 @@
       <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="12"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="12"/>
+      <c r="I5" s="13"/>
       <c r="J5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="12"/>
+      <c r="K5" s="13"/>
       <c r="L5" s="7"/>
       <c r="M5" s="4" t="s">
         <v>6</v>
@@ -902,23 +908,23 @@
       <c r="N5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="12"/>
+      <c r="O5" s="13"/>
       <c r="P5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="12"/>
+      <c r="Q5" s="13"/>
       <c r="R5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="S5" s="12"/>
+      <c r="S5" s="13"/>
       <c r="T5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="U5" s="12"/>
+      <c r="U5" s="13"/>
       <c r="V5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="W5" s="12"/>
+      <c r="W5" s="13"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
@@ -1444,109 +1450,109 @@
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="13">
-        <v>10</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="13">
+      <c r="B16" s="14">
+        <v>10</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="14">
         <v>6</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="13">
-        <v>10</v>
-      </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="13">
-        <v>7</v>
-      </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="13">
+      <c r="E16" s="15"/>
+      <c r="F16" s="14">
+        <v>10</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="14">
+        <v>7</v>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="14">
         <v>6</v>
       </c>
-      <c r="K16" s="14"/>
+      <c r="K16" s="15"/>
       <c r="L16" s="8"/>
       <c r="M16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N16" s="13">
-        <v>10</v>
-      </c>
-      <c r="O16" s="14"/>
-      <c r="P16" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="13">
-        <v>10</v>
-      </c>
-      <c r="S16" s="14"/>
-      <c r="T16" s="13">
-        <v>10</v>
-      </c>
-      <c r="U16" s="14"/>
-      <c r="V16" s="13">
+      <c r="N16" s="14">
+        <v>10</v>
+      </c>
+      <c r="O16" s="15"/>
+      <c r="P16" s="14">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="14">
+        <v>10</v>
+      </c>
+      <c r="S16" s="15"/>
+      <c r="T16" s="14">
+        <v>10</v>
+      </c>
+      <c r="U16" s="15"/>
+      <c r="V16" s="14">
         <v>6</v>
       </c>
-      <c r="W16" s="14"/>
+      <c r="W16" s="15"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="14">
         <f>(B16/10)*100</f>
         <v>100</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="13">
+      <c r="C17" s="15"/>
+      <c r="D17" s="14">
         <f t="shared" ref="D17:J17" si="0">(D16/10)*100</f>
         <v>60</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="13">
+      <c r="E17" s="15"/>
+      <c r="F17" s="14">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="13">
+      <c r="G17" s="15"/>
+      <c r="H17" s="14">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="13">
+      <c r="I17" s="15"/>
+      <c r="J17" s="14">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="K17" s="14"/>
+      <c r="K17" s="15"/>
       <c r="L17" s="8"/>
       <c r="M17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="14">
         <f>(N16/10)*100</f>
         <v>100</v>
       </c>
-      <c r="O17" s="14"/>
-      <c r="P17" s="13">
+      <c r="O17" s="15"/>
+      <c r="P17" s="14">
         <f t="shared" ref="P17" si="1">(P16/10)*100</f>
         <v>100</v>
       </c>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="13">
+      <c r="Q17" s="15"/>
+      <c r="R17" s="14">
         <f t="shared" ref="R17" si="2">(R16/10)*100</f>
         <v>100</v>
       </c>
-      <c r="S17" s="14"/>
-      <c r="T17" s="13">
+      <c r="S17" s="15"/>
+      <c r="T17" s="14">
         <f t="shared" ref="T17" si="3">(T16/10)*100</f>
         <v>100</v>
       </c>
-      <c r="U17" s="14"/>
-      <c r="V17" s="13">
+      <c r="U17" s="15"/>
+      <c r="V17" s="14">
         <f t="shared" ref="V17" si="4">(V16/10)*100</f>
         <v>60</v>
       </c>
-      <c r="W17" s="14"/>
+      <c r="W17" s="15"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
@@ -1556,15 +1562,15 @@
         <f>AVERAGE(B17:K17)</f>
         <v>78</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="13"/>
       <c r="L18" s="8"/>
       <c r="M18" s="4" t="s">
         <v>16</v>
@@ -1573,31 +1579,24 @@
         <f>AVERAGE(N17:W17)</f>
         <v>92</v>
       </c>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="N18:W18"/>
     <mergeCell ref="A2:W2"/>
     <mergeCell ref="T16:U16"/>
@@ -1614,12 +1613,19 @@
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="P16:Q16"/>
     <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1627,20 +1633,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C10"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="9" customWidth="1"/>
-    <col min="2" max="16384" width="8.85546875" style="9"/>
+    <col min="1" max="1" width="8" style="9" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>21</v>
       </c>
@@ -1653,95 +1660,99 @@
       <c r="H1" s="19"/>
       <c r="I1" s="19"/>
       <c r="J1" s="19"/>
-      <c r="K1" s="20"/>
-    </row>
-    <row r="2" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="K1" s="19"/>
+      <c r="L1" s="20"/>
+    </row>
+    <row r="2" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="20"/>
+      <c r="G2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="20"/>
+      <c r="I2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="20"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="20"/>
+      <c r="C3" s="21">
         <v>24</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="21">
+      <c r="D3" s="22"/>
+      <c r="E3" s="21">
         <v>27</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="21">
+      <c r="F3" s="22"/>
+      <c r="G3" s="21">
         <v>29</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="21">
+      <c r="H3" s="22"/>
+      <c r="I3" s="21">
         <v>0</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="21">
+      <c r="J3" s="22"/>
+      <c r="K3" s="21">
         <v>0</v>
       </c>
-      <c r="K3" s="22"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="L3" s="22"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="21">
-        <f>ROUND((B3/30)*100,2)</f>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21">
+        <f>ROUND((C3/30)*100,2)</f>
         <v>80</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="21">
-        <f t="shared" ref="D4" si="0">ROUND((D3/30)*100,2)</f>
+      <c r="D4" s="22"/>
+      <c r="E4" s="21">
+        <f t="shared" ref="E4" si="0">ROUND((E3/30)*100,2)</f>
         <v>90</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="21">
-        <f t="shared" ref="F4" si="1">ROUND((F3/30)*100,2)</f>
+      <c r="F4" s="22"/>
+      <c r="G4" s="21">
+        <f t="shared" ref="G4" si="1">ROUND((G3/30)*100,2)</f>
         <v>96.67</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="21">
+      <c r="H4" s="22"/>
+      <c r="I4" s="21">
         <v>0</v>
       </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="21">
+      <c r="J4" s="22"/>
+      <c r="K4" s="21">
         <v>0</v>
       </c>
-      <c r="K4" s="22"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="L4" s="22"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="18">
-        <f>ROUND(AVERAGE(B4:F4),2)</f>
+      <c r="B5" s="20"/>
+      <c r="C5" s="18">
+        <f>ROUND(AVERAGE(C4:G4),2)</f>
         <v>88.89</v>
       </c>
-      <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
@@ -1749,351 +1760,289 @@
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
-      <c r="K5" s="20"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="K5" s="19"/>
+      <c r="L5" s="20"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="23"/>
+      <c r="E10" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="23"/>
+      <c r="G10" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="23"/>
+      <c r="I10" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="18" t="s">
+      <c r="J10" s="23"/>
+      <c r="K10" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="20"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="L10" s="23"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="23"/>
+      <c r="C11" s="24">
         <v>61</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="21">
+      <c r="D11" s="24"/>
+      <c r="E11" s="24">
+        <v>66</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24">
+        <v>78</v>
+      </c>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24">
         <v>0</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="21">
+      <c r="J11" s="24"/>
+      <c r="K11" s="24">
         <v>0</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="21">
+      <c r="L11" s="24"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="25">
+        <v>70.11</v>
+      </c>
+      <c r="D12" s="24">
+        <f>ROUND((C11/87)*100,2)</f>
+        <v>70.11</v>
+      </c>
+      <c r="E12" s="26">
+        <v>60</v>
+      </c>
+      <c r="F12" s="24">
+        <f>ROUND((E11/87)*100,2)</f>
+        <v>75.86</v>
+      </c>
+      <c r="G12" s="26">
+        <v>75</v>
+      </c>
+      <c r="H12" s="24">
+        <f>ROUND((G11/87)*100,2)</f>
+        <v>89.66</v>
+      </c>
+      <c r="I12" s="26"/>
+      <c r="J12" s="24">
+        <f>ROUND((I11/87)*100,2)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="21">
+      <c r="K12" s="26"/>
+      <c r="L12" s="24">
+        <f>ROUND((K11/87)*100,2)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="22"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="21">
-        <f>ROUND((B11/87)*100,2)</f>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="23"/>
+      <c r="B13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="25">
         <v>70.11</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="21">
-        <f t="shared" ref="D12" si="2">ROUND((D11/30)*100,2)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="21">
-        <f t="shared" ref="F12" si="3">ROUND((F11/30)*100,2)</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="21">
-        <v>0</v>
-      </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="21">
-        <v>0</v>
-      </c>
-      <c r="K12" s="22"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+      <c r="D13" s="24"/>
+      <c r="E13" s="26">
+        <v>83.33</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="26">
+        <v>90</v>
+      </c>
+      <c r="H13" s="24"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="24"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
+      <c r="B14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="25">
+        <v>70.11</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="26">
+        <v>75</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="26">
+        <v>100</v>
+      </c>
+      <c r="H14" s="24"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="24"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="23"/>
+      <c r="B15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="25">
+        <v>70.11</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="26">
+        <v>80.95</v>
+      </c>
+      <c r="F15" s="24"/>
+      <c r="G15" s="26">
+        <v>95.24</v>
+      </c>
+      <c r="H15" s="24"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="24"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="18">
-        <f>ROUND(AVERAGE(B12:F12),2)</f>
-        <v>23.37</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="20"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18" s="20"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="21">
-        <v>0</v>
-      </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="21">
-        <v>0</v>
-      </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="21">
-        <v>0</v>
-      </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="21">
-        <v>0</v>
-      </c>
-      <c r="I19" s="22"/>
-      <c r="J19" s="21">
-        <v>0</v>
-      </c>
-      <c r="K19" s="22"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="21">
-        <f>ROUND((B19/30)*100,2)</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="21">
-        <f t="shared" ref="D20" si="4">ROUND((D19/30)*100,2)</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="21">
-        <f t="shared" ref="F20" si="5">ROUND((F19/30)*100,2)</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="22"/>
-      <c r="H20" s="21">
-        <v>0</v>
-      </c>
-      <c r="I20" s="22"/>
-      <c r="J20" s="21">
-        <v>0</v>
-      </c>
-      <c r="K20" s="22"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="18">
-        <f>ROUND(AVERAGE(B20:F20),2)</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="20"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23">
+        <f>ROUND(AVERAGE(D12,F12,H12,J12,L12),2)</f>
+        <v>47.13</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="B21:K21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
+  <mergeCells count="42">
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="L12:L15"/>
+    <mergeCell ref="C16:L16"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:K4">
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="between">
+  <conditionalFormatting sqref="C4:L4">
+    <cfRule type="cellIs" dxfId="7" priority="15" operator="between">
       <formula>1</formula>
       <formula>84</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:C3">
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="between">
+  <conditionalFormatting sqref="C3:D3">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="between">
       <formula>1</formula>
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:K3">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="between">
+  <conditionalFormatting sqref="E3:L3">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="between">
       <formula>1</formula>
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:K5">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="between">
+  <conditionalFormatting sqref="C5:L5">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="between">
       <formula>1</formula>
       <formula>84</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:K12">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="between">
+  <conditionalFormatting sqref="E13:E15 C13:C15 G13:G15 C12:L12 I13:I15 K13:K15">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="between">
       <formula>1</formula>
       <formula>84</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:C11">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="between">
+  <conditionalFormatting sqref="C11:D11">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="between">
       <formula>1</formula>
       <formula>73</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:K13">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="between">
+  <conditionalFormatting sqref="C16:L16">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="between">
       <formula>1</formula>
       <formula>84</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:K20">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
-      <formula>1</formula>
-      <formula>84</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:C19">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
-      <formula>1</formula>
-      <formula>25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19:K19">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
-      <formula>1</formula>
-      <formula>25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21:K21">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
-      <formula>1</formula>
-      <formula>84</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:K11">
+  <conditionalFormatting sqref="E11:L11">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
       <formula>1</formula>
       <formula>73</formula>

--- a/psm1/psm1-progress.xlsx
+++ b/psm1/psm1-progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\@AWS\notes\psm1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37F3207-01BD-4A07-A271-85821651B3B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F2BA94-60A9-442C-88FB-BA25A7546AE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Narrative &amp; Exam Guide" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="43">
   <si>
     <t>Narrative &amp; Exam Guide</t>
   </si>
@@ -140,13 +140,31 @@
   </si>
   <si>
     <t>Scrum Theory</t>
+  </si>
+  <si>
+    <t>Mikhail Lapshin - Real</t>
+  </si>
+  <si>
+    <t>lapshin-real-1</t>
+  </si>
+  <si>
+    <t>lapshin-real-2</t>
+  </si>
+  <si>
+    <t>lapshin-real-3</t>
+  </si>
+  <si>
+    <t>lapshin-real-4</t>
+  </si>
+  <si>
+    <t>lapshin-real-5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +211,12 @@
     <font>
       <b/>
       <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -294,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -324,59 +348,102 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -808,31 +875,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -849,82 +916,82 @@
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="15"/>
       <c r="L4" s="7"/>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="13"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="15"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="11" t="s">
+      <c r="E5" s="15"/>
+      <c r="F5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="11" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="11" t="s">
+      <c r="I5" s="15"/>
+      <c r="J5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="13"/>
+      <c r="K5" s="15"/>
       <c r="L5" s="7"/>
       <c r="M5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="13"/>
-      <c r="P5" s="11" t="s">
+      <c r="O5" s="15"/>
+      <c r="P5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="11" t="s">
+      <c r="Q5" s="15"/>
+      <c r="R5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="S5" s="13"/>
-      <c r="T5" s="11" t="s">
+      <c r="S5" s="15"/>
+      <c r="T5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="U5" s="13"/>
-      <c r="V5" s="11" t="s">
+      <c r="U5" s="15"/>
+      <c r="V5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="W5" s="13"/>
+      <c r="W5" s="15"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
@@ -1450,153 +1517,160 @@
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="14">
-        <v>10</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="14">
+      <c r="B16" s="16">
+        <v>10</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="16">
         <v>6</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="14">
-        <v>10</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="14">
-        <v>7</v>
-      </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="14">
+      <c r="E16" s="17"/>
+      <c r="F16" s="16">
+        <v>10</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="16">
+        <v>7</v>
+      </c>
+      <c r="I16" s="17"/>
+      <c r="J16" s="16">
         <v>6</v>
       </c>
-      <c r="K16" s="15"/>
+      <c r="K16" s="17"/>
       <c r="L16" s="8"/>
       <c r="M16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N16" s="14">
-        <v>10</v>
-      </c>
-      <c r="O16" s="15"/>
-      <c r="P16" s="14">
-        <v>10</v>
-      </c>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="14">
-        <v>10</v>
-      </c>
-      <c r="S16" s="15"/>
-      <c r="T16" s="14">
-        <v>10</v>
-      </c>
-      <c r="U16" s="15"/>
-      <c r="V16" s="14">
+      <c r="N16" s="16">
+        <v>10</v>
+      </c>
+      <c r="O16" s="17"/>
+      <c r="P16" s="16">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="16">
+        <v>10</v>
+      </c>
+      <c r="S16" s="17"/>
+      <c r="T16" s="16">
+        <v>10</v>
+      </c>
+      <c r="U16" s="17"/>
+      <c r="V16" s="16">
         <v>6</v>
       </c>
-      <c r="W16" s="15"/>
+      <c r="W16" s="17"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="16">
         <f>(B16/10)*100</f>
         <v>100</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="14">
+      <c r="C17" s="17"/>
+      <c r="D17" s="16">
         <f t="shared" ref="D17:J17" si="0">(D16/10)*100</f>
         <v>60</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="14">
+      <c r="E17" s="17"/>
+      <c r="F17" s="16">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="14">
+      <c r="G17" s="17"/>
+      <c r="H17" s="16">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="14">
+      <c r="I17" s="17"/>
+      <c r="J17" s="16">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="K17" s="15"/>
+      <c r="K17" s="17"/>
       <c r="L17" s="8"/>
       <c r="M17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N17" s="16">
         <f>(N16/10)*100</f>
         <v>100</v>
       </c>
-      <c r="O17" s="15"/>
-      <c r="P17" s="14">
+      <c r="O17" s="17"/>
+      <c r="P17" s="16">
         <f t="shared" ref="P17" si="1">(P16/10)*100</f>
         <v>100</v>
       </c>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="14">
+      <c r="Q17" s="17"/>
+      <c r="R17" s="16">
         <f t="shared" ref="R17" si="2">(R16/10)*100</f>
         <v>100</v>
       </c>
-      <c r="S17" s="15"/>
-      <c r="T17" s="14">
+      <c r="S17" s="17"/>
+      <c r="T17" s="16">
         <f t="shared" ref="T17" si="3">(T16/10)*100</f>
         <v>100</v>
       </c>
-      <c r="U17" s="15"/>
-      <c r="V17" s="14">
+      <c r="U17" s="17"/>
+      <c r="V17" s="16">
         <f t="shared" ref="V17" si="4">(V16/10)*100</f>
         <v>60</v>
       </c>
-      <c r="W17" s="15"/>
+      <c r="W17" s="17"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="14">
         <f>AVERAGE(B17:K17)</f>
         <v>78</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="13"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="15"/>
       <c r="L18" s="8"/>
       <c r="M18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N18" s="11">
+      <c r="N18" s="14">
         <f>AVERAGE(N17:W17)</f>
         <v>92</v>
       </c>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="13"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F16:G16"/>
     <mergeCell ref="N18:W18"/>
     <mergeCell ref="A2:W2"/>
     <mergeCell ref="T16:U16"/>
@@ -1613,19 +1687,12 @@
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="P16:Q16"/>
     <mergeCell ref="R16:S16"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1634,10 +1701,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="Q10" sqref="Q10:Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1648,168 +1715,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="20"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="23"/>
     </row>
     <row r="2" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="18" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="18" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="18" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="18" t="s">
+      <c r="H2" s="23"/>
+      <c r="I2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="18" t="s">
+      <c r="J2" s="23"/>
+      <c r="K2" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="20"/>
+      <c r="L2" s="23"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21">
+      <c r="B3" s="23"/>
+      <c r="C3" s="26">
         <v>24</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="21">
+      <c r="D3" s="27"/>
+      <c r="E3" s="26">
         <v>27</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="21">
+      <c r="F3" s="27"/>
+      <c r="G3" s="26">
         <v>29</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="21">
+      <c r="H3" s="27"/>
+      <c r="I3" s="26">
         <v>0</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="21">
+      <c r="J3" s="27"/>
+      <c r="K3" s="26">
         <v>0</v>
       </c>
-      <c r="L3" s="22"/>
+      <c r="L3" s="27"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21">
+      <c r="B4" s="23"/>
+      <c r="C4" s="26">
         <f>ROUND((C3/30)*100,2)</f>
         <v>80</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="21">
+      <c r="D4" s="27"/>
+      <c r="E4" s="26">
         <f t="shared" ref="E4" si="0">ROUND((E3/30)*100,2)</f>
         <v>90</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="21">
+      <c r="F4" s="27"/>
+      <c r="G4" s="26">
         <f t="shared" ref="G4" si="1">ROUND((G3/30)*100,2)</f>
         <v>96.67</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="21">
+      <c r="H4" s="27"/>
+      <c r="I4" s="26">
         <v>0</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="21">
+      <c r="J4" s="27"/>
+      <c r="K4" s="26">
         <v>0</v>
       </c>
-      <c r="L4" s="22"/>
+      <c r="L4" s="27"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="18">
+      <c r="B5" s="23"/>
+      <c r="C5" s="22">
         <f>ROUND(AVERAGE(C4:G4),2)</f>
         <v>88.89</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="20"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="23"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23" t="s">
+      <c r="F10" s="21"/>
+      <c r="G10" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23" t="s">
+      <c r="H10" s="21"/>
+      <c r="I10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23" t="s">
+      <c r="J10" s="21"/>
+      <c r="K10" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="L10" s="23"/>
+      <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="23"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="24">
         <v>61</v>
       </c>
@@ -1823,7 +1890,7 @@
       </c>
       <c r="H11" s="24"/>
       <c r="I11" s="24">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="J11" s="24"/>
       <c r="K11" s="24">
@@ -1832,145 +1899,325 @@
       <c r="L11" s="24"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="12">
         <v>70.11</v>
       </c>
       <c r="D12" s="24">
         <f>ROUND((C11/87)*100,2)</f>
         <v>70.11</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="13">
         <v>60</v>
       </c>
       <c r="F12" s="24">
         <f>ROUND((E11/87)*100,2)</f>
         <v>75.86</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="13">
         <v>75</v>
       </c>
       <c r="H12" s="24">
         <f>ROUND((G11/87)*100,2)</f>
         <v>89.66</v>
       </c>
-      <c r="I12" s="26"/>
+      <c r="I12" s="13">
+        <v>90</v>
+      </c>
       <c r="J12" s="24">
         <f>ROUND((I11/87)*100,2)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="26"/>
+        <v>90.8</v>
+      </c>
+      <c r="K12" s="13"/>
       <c r="L12" s="24">
         <f>ROUND((K11/87)*100,2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="12">
         <v>70.11</v>
       </c>
       <c r="D13" s="24"/>
-      <c r="E13" s="26">
+      <c r="E13" s="13">
         <v>83.33</v>
       </c>
       <c r="F13" s="24"/>
-      <c r="G13" s="26">
+      <c r="G13" s="13">
         <v>90</v>
       </c>
       <c r="H13" s="24"/>
-      <c r="I13" s="26"/>
+      <c r="I13" s="13">
+        <v>93.33</v>
+      </c>
       <c r="J13" s="24"/>
-      <c r="K13" s="26"/>
+      <c r="K13" s="13"/>
       <c r="L13" s="24"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="12">
         <v>70.11</v>
       </c>
       <c r="D14" s="24"/>
-      <c r="E14" s="26">
+      <c r="E14" s="13">
         <v>75</v>
       </c>
       <c r="F14" s="24"/>
-      <c r="G14" s="26">
+      <c r="G14" s="13">
         <v>100</v>
       </c>
       <c r="H14" s="24"/>
-      <c r="I14" s="26"/>
+      <c r="I14" s="13">
+        <v>93.75</v>
+      </c>
       <c r="J14" s="24"/>
-      <c r="K14" s="26"/>
+      <c r="K14" s="13"/>
       <c r="L14" s="24"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="12">
         <v>70.11</v>
       </c>
       <c r="D15" s="24"/>
-      <c r="E15" s="26">
+      <c r="E15" s="13">
         <v>80.95</v>
       </c>
       <c r="F15" s="24"/>
-      <c r="G15" s="26">
+      <c r="G15" s="13">
         <v>95.24</v>
       </c>
       <c r="H15" s="24"/>
-      <c r="I15" s="26"/>
+      <c r="I15" s="13">
+        <v>85.71</v>
+      </c>
       <c r="J15" s="24"/>
-      <c r="K15" s="26"/>
+      <c r="K15" s="13"/>
       <c r="L15" s="24"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23">
-        <f>ROUND(AVERAGE(D12,F12,H12,J12,L12),2)</f>
-        <v>47.13</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21">
+        <f>ROUND(AVERAGE(D12,F12,H12,J12),2)</f>
+        <v>81.61</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="L21" s="21"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="24">
+        <v>77</v>
+      </c>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="12">
+        <v>89.47</v>
+      </c>
+      <c r="D23" s="24">
+        <f>ROUND((C22/80)*100,2)</f>
+        <v>96.25</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="24"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="21"/>
+      <c r="B24" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="12">
+        <v>100</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="24"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="21"/>
+      <c r="B25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="12">
+        <v>93.33</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="24"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="21"/>
+      <c r="B26" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="12">
+        <v>100</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="24"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21">
+        <f>ROUND(AVERAGE(D23),2)</f>
+        <v>96.25</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
+  <mergeCells count="63">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="L23:L26"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="L12:L15"/>
     <mergeCell ref="C5:L5"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -1982,6 +2229,20 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A9:L9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
@@ -1990,59 +2251,75 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="L12:L15"/>
-    <mergeCell ref="C16:L16"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C4:L4">
-    <cfRule type="cellIs" dxfId="7" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="19" operator="between">
       <formula>1</formula>
       <formula>84</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:D3">
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="16" operator="between">
       <formula>1</formula>
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:L3">
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="between">
       <formula>1</formula>
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:L5">
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="between">
       <formula>1</formula>
       <formula>84</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E15 C13:C15 G13:G15 C12:L12 I13:I15 K13:K15">
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="13" operator="between">
       <formula>1</formula>
       <formula>84</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:D11">
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="between">
       <formula>1</formula>
       <formula>73</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:L16">
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="between">
       <formula>1</formula>
       <formula>84</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:L11">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
+      <formula>1</formula>
+      <formula>73</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24:E26 C24:C26 G24:G26 C23:L23 I24:I26 K24:K26">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
+      <formula>1</formula>
+      <formula>84</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:D22">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
+      <formula>1</formula>
+      <formula>73</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:L27">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+      <formula>1</formula>
+      <formula>84</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22:L22">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
       <formula>1</formula>
       <formula>73</formula>

--- a/psm1/psm1-progress.xlsx
+++ b/psm1/psm1-progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\@AWS\notes\psm1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F2BA94-60A9-442C-88FB-BA25A7546AE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C26CD5-5827-4994-80ED-4F2007F74F8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Narrative &amp; Exam Guide" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="54">
   <si>
     <t>Narrative &amp; Exam Guide</t>
   </si>
@@ -158,6 +158,39 @@
   </si>
   <si>
     <t>lapshin-real-5</t>
+  </si>
+  <si>
+    <t>Questions 1-10</t>
+  </si>
+  <si>
+    <t>Questions 11-20</t>
+  </si>
+  <si>
+    <t>Questions 21-30</t>
+  </si>
+  <si>
+    <t>Questions 31-40</t>
+  </si>
+  <si>
+    <t>Questions 41-50</t>
+  </si>
+  <si>
+    <t>Questions 51-60</t>
+  </si>
+  <si>
+    <t>Questions 61-70</t>
+  </si>
+  <si>
+    <t>Questions 71-80</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>b,c,d</t>
+  </si>
+  <si>
+    <t>Model Assesment[</t>
   </si>
 </sst>
 </file>
@@ -318,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -360,6 +393,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -367,9 +403,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -381,16 +414,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -398,6 +431,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -858,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:W18"/>
+  <dimension ref="A2:Y35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -870,11 +906,21 @@
     <col min="2" max="11" width="5.6640625" customWidth="1"/>
     <col min="12" max="12" width="10.6640625" customWidth="1"/>
     <col min="13" max="13" width="11.88671875" customWidth="1"/>
-    <col min="14" max="23" width="5.6640625" customWidth="1"/>
+    <col min="14" max="14" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.6640625" customWidth="1"/>
+    <col min="17" max="17" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="5.6640625" customWidth="1"/>
+    <col min="20" max="20" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.6640625" customWidth="1"/>
+    <col min="23" max="23" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7.44140625" customWidth="1"/>
+    <col min="25" max="25" width="7.77734375" customWidth="1"/>
+    <col min="26" max="26" width="8.6640625" customWidth="1"/>
+    <col min="27" max="27" width="8.5546875" customWidth="1"/>
+    <col min="28" max="28" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -901,7 +947,7 @@
       <c r="V2" s="20"/>
       <c r="W2" s="20"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -915,85 +961,83 @@
       <c r="K3" s="5"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16"/>
       <c r="L4" s="7"/>
-      <c r="M4" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="15"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="N4" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="15"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="15"/>
+      <c r="E5" s="16"/>
       <c r="F5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="15"/>
+      <c r="G5" s="16"/>
       <c r="H5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="15"/>
+      <c r="I5" s="16"/>
       <c r="J5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="15"/>
+      <c r="K5" s="16"/>
       <c r="L5" s="7"/>
-      <c r="M5" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="N5" s="14" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="O5" s="15"/>
-      <c r="P5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="S5" s="15"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="R5" s="15"/>
+      <c r="S5" s="16"/>
       <c r="T5" s="14" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="U5" s="15"/>
-      <c r="V5" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="W5" s="15"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V5" s="16"/>
+      <c r="W5" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="16"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1022,31 +1066,34 @@
         <v>7</v>
       </c>
       <c r="L6" s="7"/>
-      <c r="M6" s="4">
+      <c r="N6" s="4">
         <v>1</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="3"/>
+      <c r="O6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="4">
+        <v>11</v>
+      </c>
       <c r="R6" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="S6" s="3"/>
-      <c r="T6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W6" s="3"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T6" s="4">
+        <v>21</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V6" s="3"/>
+      <c r="W6" s="4">
+        <v>31</v>
+      </c>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -1075,33 +1122,34 @@
         <v>18</v>
       </c>
       <c r="L7" s="7"/>
-      <c r="M7" s="4">
+      <c r="N7" s="4">
         <v>2</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q7" s="3"/>
+      <c r="O7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="4">
+        <v>12</v>
+      </c>
       <c r="R7" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S7" s="3"/>
-      <c r="T7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="U7" s="3"/>
-      <c r="V7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T7" s="4">
+        <v>22</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V7" s="3"/>
+      <c r="W7" s="4">
+        <v>32</v>
+      </c>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -1126,31 +1174,34 @@
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="7"/>
-      <c r="M8" s="4">
+      <c r="N8" s="4">
         <v>3</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q8" s="3"/>
+      <c r="O8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="4">
+        <v>13</v>
+      </c>
       <c r="R8" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S8" s="3"/>
-      <c r="T8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W8" s="3"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T8" s="4">
+        <v>23</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V8" s="3"/>
+      <c r="W8" s="4">
+        <v>33</v>
+      </c>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>4</v>
       </c>
@@ -1177,31 +1228,34 @@
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="7"/>
-      <c r="M9" s="4">
+      <c r="N9" s="4">
         <v>4</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q9" s="3"/>
+      <c r="O9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="4">
+        <v>14</v>
+      </c>
       <c r="R9" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S9" s="3"/>
-      <c r="T9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W9" s="3"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T9" s="4">
+        <v>24</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="V9" s="3"/>
+      <c r="W9" s="4">
+        <v>34</v>
+      </c>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>5</v>
       </c>
@@ -1226,33 +1280,32 @@
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="7"/>
-      <c r="M10" s="4">
+      <c r="N10" s="4">
         <v>5</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="3"/>
+      <c r="O10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="4">
+        <v>15</v>
+      </c>
       <c r="R10" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S10" s="3"/>
-      <c r="T10" s="3" t="s">
-        <v>11</v>
+      <c r="T10" s="4">
+        <v>25</v>
       </c>
       <c r="U10" s="3"/>
-      <c r="V10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V10" s="3"/>
+      <c r="W10" s="4">
+        <v>35</v>
+      </c>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>6</v>
       </c>
@@ -1279,31 +1332,32 @@
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="7"/>
-      <c r="M11" s="4">
+      <c r="N11" s="4">
         <v>6</v>
       </c>
-      <c r="N11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="3"/>
+      <c r="O11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="4">
+        <v>16</v>
+      </c>
       <c r="R11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="S11" s="3"/>
-      <c r="T11" s="3" t="s">
-        <v>7</v>
+      <c r="T11" s="4">
+        <v>26</v>
       </c>
       <c r="U11" s="3"/>
-      <c r="V11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V11" s="3"/>
+      <c r="W11" s="4">
+        <v>36</v>
+      </c>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>7</v>
       </c>
@@ -1332,33 +1386,32 @@
         <v>8</v>
       </c>
       <c r="L12" s="7"/>
-      <c r="M12" s="4">
-        <v>7</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q12" s="3"/>
+      <c r="N12" s="4">
+        <v>7</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="4">
+        <v>17</v>
+      </c>
       <c r="R12" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S12" s="3"/>
-      <c r="T12" s="3" t="s">
-        <v>8</v>
+      <c r="T12" s="4">
+        <v>27</v>
       </c>
       <c r="U12" s="3"/>
-      <c r="V12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V12" s="3"/>
+      <c r="W12" s="4">
+        <v>37</v>
+      </c>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -1385,31 +1438,32 @@
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="7"/>
-      <c r="M13" s="4">
-        <v>8</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q13" s="3"/>
+      <c r="N13" s="4">
+        <v>8</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="4">
+        <v>18</v>
+      </c>
       <c r="R13" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S13" s="3"/>
-      <c r="T13" s="3" t="s">
-        <v>7</v>
+      <c r="T13" s="4">
+        <v>28</v>
       </c>
       <c r="U13" s="3"/>
-      <c r="V13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W13" s="3"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V13" s="3"/>
+      <c r="W13" s="4">
+        <v>38</v>
+      </c>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -1436,31 +1490,32 @@
         <v>12</v>
       </c>
       <c r="L14" s="7"/>
-      <c r="M14" s="4">
+      <c r="N14" s="4">
         <v>9</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q14" s="3"/>
+      <c r="O14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="4">
+        <v>19</v>
+      </c>
       <c r="R14" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S14" s="3"/>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
+      <c r="T14" s="4">
+        <v>29</v>
       </c>
       <c r="U14" s="3"/>
-      <c r="V14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="W14" s="3"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V14" s="3"/>
+      <c r="W14" s="4">
+        <v>39</v>
+      </c>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -1487,141 +1542,129 @@
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="4">
-        <v>10</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q15" s="3"/>
+      <c r="N15" s="4">
+        <v>10</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="4">
+        <v>20</v>
+      </c>
       <c r="R15" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="S15" s="3"/>
-      <c r="T15" s="3" t="s">
-        <v>13</v>
+      <c r="T15" s="4">
+        <v>30</v>
       </c>
       <c r="U15" s="3"/>
-      <c r="V15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V15" s="3"/>
+      <c r="W15" s="4">
+        <v>40</v>
+      </c>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="16">
-        <v>10</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="16">
+      <c r="B16" s="17">
+        <v>10</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="17">
         <v>6</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="16">
-        <v>10</v>
-      </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="16">
-        <v>7</v>
-      </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="16">
+      <c r="E16" s="18"/>
+      <c r="F16" s="17">
+        <v>10</v>
+      </c>
+      <c r="G16" s="18"/>
+      <c r="H16" s="17">
+        <v>7</v>
+      </c>
+      <c r="I16" s="18"/>
+      <c r="J16" s="17">
         <v>6</v>
       </c>
-      <c r="K16" s="17"/>
+      <c r="K16" s="18"/>
       <c r="L16" s="8"/>
-      <c r="M16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N16" s="16">
-        <v>10</v>
-      </c>
-      <c r="O16" s="17"/>
-      <c r="P16" s="16">
-        <v>10</v>
-      </c>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="16">
-        <v>10</v>
-      </c>
-      <c r="S16" s="17"/>
-      <c r="T16" s="16">
-        <v>10</v>
-      </c>
-      <c r="U16" s="17"/>
-      <c r="V16" s="16">
-        <v>6</v>
-      </c>
-      <c r="W16" s="17"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="N16" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="O16" s="15"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="R16" s="15"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="U16" s="15"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="16"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="17">
         <f>(B16/10)*100</f>
         <v>100</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="16">
+      <c r="C17" s="18"/>
+      <c r="D17" s="17">
         <f t="shared" ref="D17:J17" si="0">(D16/10)*100</f>
         <v>60</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="16">
+      <c r="E17" s="18"/>
+      <c r="F17" s="17">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="16">
+      <c r="G17" s="18"/>
+      <c r="H17" s="17">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="16">
+      <c r="I17" s="18"/>
+      <c r="J17" s="17">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="K17" s="17"/>
+      <c r="K17" s="18"/>
       <c r="L17" s="8"/>
-      <c r="M17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N17" s="16">
-        <f>(N16/10)*100</f>
-        <v>100</v>
-      </c>
-      <c r="O17" s="17"/>
-      <c r="P17" s="16">
-        <f t="shared" ref="P17" si="1">(P16/10)*100</f>
-        <v>100</v>
-      </c>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="16">
-        <f t="shared" ref="R17" si="2">(R16/10)*100</f>
-        <v>100</v>
-      </c>
-      <c r="S17" s="17"/>
-      <c r="T17" s="16">
-        <f t="shared" ref="T17" si="3">(T16/10)*100</f>
-        <v>100</v>
-      </c>
-      <c r="U17" s="17"/>
-      <c r="V17" s="16">
-        <f t="shared" ref="V17" si="4">(V16/10)*100</f>
-        <v>60</v>
-      </c>
-      <c r="W17" s="17"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="N17" s="4">
+        <v>41</v>
+      </c>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="4">
+        <v>51</v>
+      </c>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="4">
+        <v>61</v>
+      </c>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="4">
+        <v>71</v>
+      </c>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -1629,35 +1672,605 @@
         <f>AVERAGE(B17:K17)</f>
         <v>78</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="16"/>
       <c r="L18" s="8"/>
-      <c r="M18" s="4" t="s">
+      <c r="N18" s="4">
+        <v>42</v>
+      </c>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="4">
+        <v>52</v>
+      </c>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="4">
+        <v>62</v>
+      </c>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="4">
+        <v>72</v>
+      </c>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="N19" s="4">
+        <v>43</v>
+      </c>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="4">
+        <v>53</v>
+      </c>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="4">
+        <v>63</v>
+      </c>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="4">
+        <v>73</v>
+      </c>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="N20" s="4">
+        <v>44</v>
+      </c>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="4">
+        <v>54</v>
+      </c>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="4">
+        <v>64</v>
+      </c>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="4">
+        <v>74</v>
+      </c>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="16"/>
+      <c r="N21" s="4">
+        <v>45</v>
+      </c>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="4">
+        <v>55</v>
+      </c>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="4">
+        <v>65</v>
+      </c>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="4">
+        <v>75</v>
+      </c>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="16"/>
+      <c r="J22" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="16"/>
+      <c r="N22" s="4">
+        <v>46</v>
+      </c>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="4">
+        <v>56</v>
+      </c>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="4">
+        <v>66</v>
+      </c>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="4">
+        <v>76</v>
+      </c>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="N23" s="4">
+        <v>47</v>
+      </c>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="4">
+        <v>57</v>
+      </c>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="4">
+        <v>67</v>
+      </c>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="4">
+        <v>77</v>
+      </c>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>2</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N24" s="4">
+        <v>48</v>
+      </c>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="4">
+        <v>58</v>
+      </c>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="4">
+        <v>68</v>
+      </c>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="4">
+        <v>78</v>
+      </c>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="N25" s="4">
+        <v>49</v>
+      </c>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="4">
+        <v>59</v>
+      </c>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="4">
+        <v>69</v>
+      </c>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="4">
+        <v>79</v>
+      </c>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>4</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="3"/>
+      <c r="N26" s="4">
+        <v>50</v>
+      </c>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="4">
+        <v>60</v>
+      </c>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="4">
+        <v>70</v>
+      </c>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="4">
+        <v>80</v>
+      </c>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>5</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>6</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>7</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>8</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>9</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>10</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="17">
+        <v>10</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="17">
+        <v>10</v>
+      </c>
+      <c r="E33" s="18"/>
+      <c r="F33" s="17">
+        <v>10</v>
+      </c>
+      <c r="G33" s="18"/>
+      <c r="H33" s="17">
+        <v>10</v>
+      </c>
+      <c r="I33" s="18"/>
+      <c r="J33" s="17">
+        <v>6</v>
+      </c>
+      <c r="K33" s="18"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="17">
+        <f>(B33/10)*100</f>
+        <v>100</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="17">
+        <f t="shared" ref="D34" si="1">(D33/10)*100</f>
+        <v>100</v>
+      </c>
+      <c r="E34" s="18"/>
+      <c r="F34" s="17">
+        <f t="shared" ref="F34" si="2">(F33/10)*100</f>
+        <v>100</v>
+      </c>
+      <c r="G34" s="18"/>
+      <c r="H34" s="17">
+        <f t="shared" ref="H34" si="3">(H33/10)*100</f>
+        <v>100</v>
+      </c>
+      <c r="I34" s="18"/>
+      <c r="J34" s="17">
+        <f t="shared" ref="J34" si="4">(J33/10)*100</f>
+        <v>60</v>
+      </c>
+      <c r="K34" s="18"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N18" s="14">
-        <f>AVERAGE(N17:W17)</f>
+      <c r="B35" s="14">
+        <f>AVERAGE(B34:K34)</f>
         <v>92</v>
       </c>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="44">
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="N4:Y4"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="A2:W2"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="B18:K18"/>
     <mergeCell ref="J16:K16"/>
@@ -1671,29 +2284,8 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F16:G16"/>
-    <mergeCell ref="N18:W18"/>
-    <mergeCell ref="A2:W2"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="M4:W4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1703,8 +2295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10:Q12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1715,52 +2307,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="22" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="22" t="s">
+      <c r="F2" s="25"/>
+      <c r="G2" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="22" t="s">
+      <c r="H2" s="25"/>
+      <c r="I2" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="22" t="s">
+      <c r="J2" s="25"/>
+      <c r="K2" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="23"/>
+      <c r="L2" s="25"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="26">
         <v>24</v>
       </c>
@@ -1783,10 +2375,10 @@
       <c r="L3" s="27"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="26">
         <f>ROUND((C3/30)*100,2)</f>
         <v>80</v>
@@ -1812,23 +2404,23 @@
       <c r="L4" s="27"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="22">
+      <c r="B5" s="25"/>
+      <c r="C5" s="23">
         <f>ROUND(AVERAGE(C4:G4),2)</f>
         <v>88.89</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="25"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
@@ -1877,26 +2469,26 @@
         <v>14</v>
       </c>
       <c r="B11" s="21"/>
-      <c r="C11" s="24">
+      <c r="C11" s="22">
         <v>61</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24">
+      <c r="D11" s="22"/>
+      <c r="E11" s="22">
         <v>66</v>
       </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24">
+      <c r="F11" s="22"/>
+      <c r="G11" s="22">
         <v>78</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24">
+      <c r="H11" s="22"/>
+      <c r="I11" s="22">
         <v>79</v>
       </c>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24">
+      <c r="J11" s="22"/>
+      <c r="K11" s="22">
         <v>0</v>
       </c>
-      <c r="L11" s="24"/>
+      <c r="L11" s="22"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
@@ -1908,33 +2500,33 @@
       <c r="C12" s="12">
         <v>70.11</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="22">
         <f>ROUND((C11/87)*100,2)</f>
         <v>70.11</v>
       </c>
       <c r="E12" s="13">
         <v>60</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="22">
         <f>ROUND((E11/87)*100,2)</f>
         <v>75.86</v>
       </c>
       <c r="G12" s="13">
         <v>75</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="22">
         <f>ROUND((G11/87)*100,2)</f>
         <v>89.66</v>
       </c>
       <c r="I12" s="13">
         <v>90</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="22">
         <f>ROUND((I11/87)*100,2)</f>
         <v>90.8</v>
       </c>
       <c r="K12" s="13"/>
-      <c r="L12" s="24">
+      <c r="L12" s="22">
         <f>ROUND((K11/87)*100,2)</f>
         <v>0</v>
       </c>
@@ -1947,21 +2539,21 @@
       <c r="C13" s="12">
         <v>70.11</v>
       </c>
-      <c r="D13" s="24"/>
+      <c r="D13" s="22"/>
       <c r="E13" s="13">
         <v>83.33</v>
       </c>
-      <c r="F13" s="24"/>
+      <c r="F13" s="22"/>
       <c r="G13" s="13">
         <v>90</v>
       </c>
-      <c r="H13" s="24"/>
+      <c r="H13" s="22"/>
       <c r="I13" s="13">
         <v>93.33</v>
       </c>
-      <c r="J13" s="24"/>
+      <c r="J13" s="22"/>
       <c r="K13" s="13"/>
-      <c r="L13" s="24"/>
+      <c r="L13" s="22"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="21"/>
@@ -1971,21 +2563,21 @@
       <c r="C14" s="12">
         <v>70.11</v>
       </c>
-      <c r="D14" s="24"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="13">
         <v>75</v>
       </c>
-      <c r="F14" s="24"/>
+      <c r="F14" s="22"/>
       <c r="G14" s="13">
         <v>100</v>
       </c>
-      <c r="H14" s="24"/>
+      <c r="H14" s="22"/>
       <c r="I14" s="13">
         <v>93.75</v>
       </c>
-      <c r="J14" s="24"/>
+      <c r="J14" s="22"/>
       <c r="K14" s="13"/>
-      <c r="L14" s="24"/>
+      <c r="L14" s="22"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="21"/>
@@ -1995,21 +2587,21 @@
       <c r="C15" s="12">
         <v>70.11</v>
       </c>
-      <c r="D15" s="24"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="13">
         <v>80.95</v>
       </c>
-      <c r="F15" s="24"/>
+      <c r="F15" s="22"/>
       <c r="G15" s="13">
         <v>95.24</v>
       </c>
-      <c r="H15" s="24"/>
+      <c r="H15" s="22"/>
       <c r="I15" s="13">
         <v>85.71</v>
       </c>
-      <c r="J15" s="24"/>
+      <c r="J15" s="22"/>
       <c r="K15" s="13"/>
-      <c r="L15" s="24"/>
+      <c r="L15" s="22"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
@@ -2077,18 +2669,20 @@
         <v>14</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="24">
+      <c r="C22" s="22">
         <v>77</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22">
+        <v>78</v>
+      </c>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
@@ -2100,18 +2694,23 @@
       <c r="C23" s="12">
         <v>89.47</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="22">
         <f>ROUND((C22/80)*100,2)</f>
         <v>96.25</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="24"/>
+      <c r="E23" s="13">
+        <v>94.74</v>
+      </c>
+      <c r="F23" s="22">
+        <f>ROUND((E22/80)*100,2)</f>
+        <v>97.5</v>
+      </c>
       <c r="G23" s="13"/>
-      <c r="H23" s="24"/>
+      <c r="H23" s="22"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="24"/>
+      <c r="J23" s="22"/>
       <c r="K23" s="13"/>
-      <c r="L23" s="24"/>
+      <c r="L23" s="22"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="21"/>
@@ -2121,15 +2720,17 @@
       <c r="C24" s="12">
         <v>100</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="24"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="13">
+        <v>100</v>
+      </c>
+      <c r="F24" s="22"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="24"/>
+      <c r="H24" s="22"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="24"/>
+      <c r="J24" s="22"/>
       <c r="K24" s="13"/>
-      <c r="L24" s="24"/>
+      <c r="L24" s="22"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="21"/>
@@ -2139,15 +2740,17 @@
       <c r="C25" s="12">
         <v>93.33</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="24"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="13">
+        <v>92.86</v>
+      </c>
+      <c r="F25" s="22"/>
       <c r="G25" s="13"/>
-      <c r="H25" s="24"/>
+      <c r="H25" s="22"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="24"/>
+      <c r="J25" s="22"/>
       <c r="K25" s="13"/>
-      <c r="L25" s="24"/>
+      <c r="L25" s="22"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="21"/>
@@ -2157,15 +2760,17 @@
       <c r="C26" s="12">
         <v>100</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="24"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="13">
+        <v>100</v>
+      </c>
+      <c r="F26" s="22"/>
       <c r="G26" s="13"/>
-      <c r="H26" s="24"/>
+      <c r="H26" s="22"/>
       <c r="I26" s="13"/>
-      <c r="J26" s="24"/>
+      <c r="J26" s="22"/>
       <c r="K26" s="13"/>
-      <c r="L26" s="24"/>
+      <c r="L26" s="22"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
@@ -2188,53 +2793,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:L27"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="L23:L26"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="L12:L15"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
@@ -2251,6 +2809,53 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="L12:L15"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="L23:L26"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C4:L4">

--- a/psm1/psm1-progress.xlsx
+++ b/psm1/psm1-progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\@AWS\notes\psm1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C26CD5-5827-4994-80ED-4F2007F74F8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3742E3-9655-4A8C-97F4-FCA4A2C63FAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Narrative &amp; Exam Guide" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="54">
   <si>
     <t>Narrative &amp; Exam Guide</t>
   </si>
@@ -160,30 +160,6 @@
     <t>lapshin-real-5</t>
   </si>
   <si>
-    <t>Questions 1-10</t>
-  </si>
-  <si>
-    <t>Questions 11-20</t>
-  </si>
-  <si>
-    <t>Questions 21-30</t>
-  </si>
-  <si>
-    <t>Questions 31-40</t>
-  </si>
-  <si>
-    <t>Questions 41-50</t>
-  </si>
-  <si>
-    <t>Questions 51-60</t>
-  </si>
-  <si>
-    <t>Questions 61-70</t>
-  </si>
-  <si>
-    <t>Questions 71-80</t>
-  </si>
-  <si>
     <t>e</t>
   </si>
   <si>
@@ -191,6 +167,30 @@
   </si>
   <si>
     <t>Model Assesment[</t>
+  </si>
+  <si>
+    <t>a,c,e</t>
+  </si>
+  <si>
+    <t>b,d</t>
+  </si>
+  <si>
+    <t>a,d</t>
+  </si>
+  <si>
+    <t>Questions 1-20</t>
+  </si>
+  <si>
+    <t>Questions 21-40</t>
+  </si>
+  <si>
+    <t>Questions 41-60</t>
+  </si>
+  <si>
+    <t>Questions 61-80</t>
+  </si>
+  <si>
+    <t>Final %</t>
   </si>
 </sst>
 </file>
@@ -351,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -414,16 +414,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -432,7 +432,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -894,10 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:Y35"/>
+  <dimension ref="A2:AC35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:Y4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -920,7 +926,7 @@
     <col min="28" max="28" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -947,7 +953,7 @@
       <c r="V2" s="20"/>
       <c r="W2" s="20"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -961,7 +967,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>19</v>
       </c>
@@ -977,7 +983,7 @@
       <c r="K4" s="16"/>
       <c r="L4" s="7"/>
       <c r="N4" s="28" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="O4" s="28"/>
       <c r="P4" s="28"/>
@@ -991,7 +997,7 @@
       <c r="X4" s="28"/>
       <c r="Y4" s="28"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -1016,28 +1022,28 @@
       </c>
       <c r="K5" s="16"/>
       <c r="L5" s="7"/>
-      <c r="N5" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="R5" s="15"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="U5" s="15"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="16"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="N5" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1074,26 +1080,28 @@
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="4">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="4">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="V6" s="3"/>
       <c r="W6" s="4">
-        <v>31</v>
-      </c>
-      <c r="X6" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -1130,26 +1138,30 @@
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="4">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S7" s="3"/>
+      <c r="S7" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="T7" s="4">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V7" s="3"/>
       <c r="W7" s="4">
-        <v>32</v>
-      </c>
-      <c r="X7" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -1182,26 +1194,28 @@
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="4">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="4">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="V8" s="3"/>
       <c r="W8" s="4">
-        <v>33</v>
-      </c>
-      <c r="X8" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>4</v>
       </c>
@@ -1232,30 +1246,34 @@
         <v>4</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P9" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="Q9" s="4">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="4">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="V9" s="3"/>
       <c r="W9" s="4">
-        <v>34</v>
-      </c>
-      <c r="X9" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>5</v>
       </c>
@@ -1284,28 +1302,36 @@
         <v>5</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P10" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="Q10" s="4">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S10" s="3"/>
+      <c r="S10" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="T10" s="4">
-        <v>25</v>
-      </c>
-      <c r="U10" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="V10" s="3"/>
       <c r="W10" s="4">
-        <v>35</v>
-      </c>
-      <c r="X10" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>6</v>
       </c>
@@ -1338,26 +1364,32 @@
       <c r="O11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P11" s="3"/>
+      <c r="P11" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="Q11" s="4">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="R11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="4">
-        <v>26</v>
-      </c>
-      <c r="U11" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="V11" s="3"/>
       <c r="W11" s="4">
-        <v>36</v>
-      </c>
-      <c r="X11" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>7</v>
       </c>
@@ -1394,24 +1426,30 @@
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="4">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="4">
-        <v>27</v>
-      </c>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="W12" s="4">
-        <v>37</v>
-      </c>
-      <c r="X12" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="Y12" s="3"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -1446,24 +1484,28 @@
       </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="4">
+        <v>28</v>
+      </c>
+      <c r="R13" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="4">
-        <v>28</v>
-      </c>
-      <c r="U13" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="V13" s="3"/>
       <c r="W13" s="4">
-        <v>38</v>
-      </c>
-      <c r="X13" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="Y13" s="3"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -1494,28 +1536,32 @@
         <v>9</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="4">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="4">
-        <v>29</v>
-      </c>
-      <c r="U14" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="V14" s="3"/>
       <c r="W14" s="4">
-        <v>39</v>
-      </c>
-      <c r="X14" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="Y14" s="3"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -1550,24 +1596,36 @@
       </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S15" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="T15" s="4">
-        <v>30</v>
-      </c>
-      <c r="U15" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="V15" s="3"/>
       <c r="W15" s="4">
-        <v>40</v>
-      </c>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC15">
+        <f>64/80</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -1592,26 +1650,40 @@
       </c>
       <c r="K16" s="18"/>
       <c r="L16" s="8"/>
-      <c r="N16" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="O16" s="15"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="14" t="s">
+      <c r="N16" s="4">
+        <v>11</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="4">
+        <v>31</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S16" s="3"/>
+      <c r="T16" s="4">
+        <v>51</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V16" s="3"/>
+      <c r="W16" s="4">
+        <v>71</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="R16" s="15"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="U16" s="15"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="16"/>
+      <c r="AC16">
+        <f>0.85*80</f>
+        <v>68</v>
+      </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
@@ -1644,24 +1716,34 @@
       <c r="K17" s="18"/>
       <c r="L17" s="8"/>
       <c r="N17" s="4">
-        <v>41</v>
-      </c>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="Q17" s="4">
-        <v>51</v>
-      </c>
-      <c r="R17" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="S17" s="3"/>
       <c r="T17" s="4">
-        <v>61</v>
-      </c>
-      <c r="U17" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="V17" s="3"/>
       <c r="W17" s="4">
-        <v>71</v>
-      </c>
-      <c r="X17" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="Y17" s="3"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
@@ -1683,68 +1765,96 @@
       <c r="K18" s="16"/>
       <c r="L18" s="8"/>
       <c r="N18" s="4">
-        <v>42</v>
-      </c>
-      <c r="O18" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="4">
-        <v>52</v>
-      </c>
-      <c r="R18" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="S18" s="3"/>
       <c r="T18" s="4">
-        <v>62</v>
-      </c>
-      <c r="U18" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="V18" s="3"/>
       <c r="W18" s="4">
-        <v>72</v>
-      </c>
-      <c r="X18" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="N19" s="4">
-        <v>43</v>
-      </c>
-      <c r="O19" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="4">
-        <v>53</v>
-      </c>
-      <c r="R19" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="S19" s="3"/>
       <c r="T19" s="4">
-        <v>63</v>
-      </c>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="W19" s="4">
-        <v>73</v>
-      </c>
-      <c r="X19" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="Y19" s="3"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="N20" s="4">
-        <v>44</v>
-      </c>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="Q20" s="4">
-        <v>54</v>
-      </c>
-      <c r="R20" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="S20" s="3"/>
       <c r="T20" s="4">
-        <v>64</v>
-      </c>
-      <c r="U20" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="V20" s="3"/>
       <c r="W20" s="4">
-        <v>74</v>
-      </c>
-      <c r="X20" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="Y20" s="3"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
@@ -1762,24 +1872,32 @@
       <c r="J21" s="15"/>
       <c r="K21" s="16"/>
       <c r="N21" s="4">
-        <v>45</v>
-      </c>
-      <c r="O21" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="4">
-        <v>55</v>
-      </c>
-      <c r="R21" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="S21" s="3"/>
       <c r="T21" s="4">
-        <v>65</v>
-      </c>
-      <c r="U21" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="V21" s="3"/>
       <c r="W21" s="4">
-        <v>75</v>
-      </c>
-      <c r="X21" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="Y21" s="3"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
@@ -1807,24 +1925,34 @@
       </c>
       <c r="K22" s="16"/>
       <c r="N22" s="4">
-        <v>46</v>
-      </c>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="Q22" s="4">
-        <v>56</v>
-      </c>
-      <c r="R22" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="S22" s="3"/>
       <c r="T22" s="4">
-        <v>66</v>
-      </c>
-      <c r="U22" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="V22" s="3"/>
       <c r="W22" s="4">
-        <v>76</v>
-      </c>
-      <c r="X22" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="Y22" s="3"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
@@ -1852,24 +1980,34 @@
       </c>
       <c r="K23" s="3"/>
       <c r="N23" s="4">
-        <v>47</v>
-      </c>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="Q23" s="4">
-        <v>57</v>
-      </c>
-      <c r="R23" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="S23" s="3"/>
       <c r="T23" s="4">
-        <v>67</v>
-      </c>
-      <c r="U23" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="V23" s="3"/>
       <c r="W23" s="4">
-        <v>77</v>
-      </c>
-      <c r="X23" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="Y23" s="3"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
@@ -1899,24 +2037,34 @@
         <v>18</v>
       </c>
       <c r="N24" s="4">
-        <v>48</v>
-      </c>
-      <c r="O24" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="4">
-        <v>58</v>
-      </c>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="T24" s="4">
-        <v>68</v>
-      </c>
-      <c r="U24" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="V24" s="3"/>
       <c r="W24" s="4">
-        <v>78</v>
-      </c>
-      <c r="X24" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="Y24" s="3"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
@@ -1944,24 +2092,34 @@
       </c>
       <c r="K25" s="3"/>
       <c r="N25" s="4">
-        <v>49</v>
-      </c>
-      <c r="O25" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="P25" s="3"/>
       <c r="Q25" s="4">
-        <v>59</v>
-      </c>
-      <c r="R25" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="S25" s="3"/>
       <c r="T25" s="4">
-        <v>69</v>
-      </c>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="W25" s="4">
-        <v>79</v>
-      </c>
-      <c r="X25" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="X25" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="Y25" s="3"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
@@ -1988,26 +2146,29 @@
         <v>10</v>
       </c>
       <c r="K26" s="3"/>
-      <c r="N26" s="4">
-        <v>50</v>
-      </c>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="4">
-        <v>60</v>
-      </c>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="4">
-        <v>70</v>
-      </c>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="4">
-        <v>80</v>
-      </c>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
+      <c r="M26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N26" s="30">
+        <v>13</v>
+      </c>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30">
+        <v>16</v>
+      </c>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30">
+        <v>17</v>
+      </c>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30">
+        <v>18</v>
+      </c>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
@@ -2035,6 +2196,33 @@
       <c r="K27" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="M27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N27" s="30">
+        <f>(N26/20)*100</f>
+        <v>65</v>
+      </c>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30">
+        <f t="shared" ref="Q27" si="1">(Q26/20)*100</f>
+        <v>80</v>
+      </c>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30">
+        <f t="shared" ref="T27" si="2">(T26/20)*100</f>
+        <v>85</v>
+      </c>
+      <c r="U27" s="30"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="30">
+        <f t="shared" ref="W27" si="3">(W26/20)*100</f>
+        <v>90</v>
+      </c>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="30"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
@@ -2060,6 +2248,24 @@
         <v>10</v>
       </c>
       <c r="K28" s="3"/>
+      <c r="M28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N28" s="30">
+        <f>(SUM(N26:Y26)/80)*100</f>
+        <v>80</v>
+      </c>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
@@ -2200,22 +2406,22 @@
       </c>
       <c r="C34" s="18"/>
       <c r="D34" s="17">
-        <f t="shared" ref="D34" si="1">(D33/10)*100</f>
+        <f t="shared" ref="D34" si="4">(D33/10)*100</f>
         <v>100</v>
       </c>
       <c r="E34" s="18"/>
       <c r="F34" s="17">
-        <f t="shared" ref="F34" si="2">(F33/10)*100</f>
+        <f t="shared" ref="F34" si="5">(F33/10)*100</f>
         <v>100</v>
       </c>
       <c r="G34" s="18"/>
       <c r="H34" s="17">
-        <f t="shared" ref="H34" si="3">(H33/10)*100</f>
+        <f t="shared" ref="H34" si="6">(H33/10)*100</f>
         <v>100</v>
       </c>
       <c r="I34" s="18"/>
       <c r="J34" s="17">
-        <f t="shared" ref="J34" si="4">(J33/10)*100</f>
+        <f t="shared" ref="J34" si="7">(J33/10)*100</f>
         <v>60</v>
       </c>
       <c r="K34" s="18"/>
@@ -2239,22 +2445,33 @@
       <c r="K35" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="W16:Y16"/>
-    <mergeCell ref="N4:Y4"/>
+  <mergeCells count="49">
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="N28:Y28"/>
     <mergeCell ref="N5:P5"/>
     <mergeCell ref="Q5:S5"/>
     <mergeCell ref="T5:V5"/>
     <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="W26:Y26"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F16:G16"/>
     <mergeCell ref="B35:K35"/>
     <mergeCell ref="A2:W2"/>
     <mergeCell ref="H33:I33"/>
@@ -2271,19 +2488,13 @@
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="N4:Y4"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2307,52 +2518,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="23"/>
     </row>
     <row r="2" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="23" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="23" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="23" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="23" t="s">
+      <c r="H2" s="23"/>
+      <c r="I2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="23" t="s">
+      <c r="J2" s="23"/>
+      <c r="K2" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="25"/>
+      <c r="L2" s="23"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="26">
         <v>24</v>
       </c>
@@ -2375,10 +2586,10 @@
       <c r="L3" s="27"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="26">
         <f>ROUND((C3/30)*100,2)</f>
         <v>80</v>
@@ -2404,23 +2615,23 @@
       <c r="L4" s="27"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="23">
+      <c r="B5" s="23"/>
+      <c r="C5" s="22">
         <f>ROUND(AVERAGE(C4:G4),2)</f>
         <v>88.89</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="23"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
@@ -2469,26 +2680,26 @@
         <v>14</v>
       </c>
       <c r="B11" s="21"/>
-      <c r="C11" s="22">
+      <c r="C11" s="24">
         <v>61</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22">
+      <c r="D11" s="24"/>
+      <c r="E11" s="24">
         <v>66</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22">
+      <c r="F11" s="24"/>
+      <c r="G11" s="24">
         <v>78</v>
       </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22">
+      <c r="H11" s="24"/>
+      <c r="I11" s="24">
         <v>79</v>
       </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22">
+      <c r="J11" s="24"/>
+      <c r="K11" s="24">
         <v>0</v>
       </c>
-      <c r="L11" s="22"/>
+      <c r="L11" s="24"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
@@ -2500,33 +2711,33 @@
       <c r="C12" s="12">
         <v>70.11</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="24">
         <f>ROUND((C11/87)*100,2)</f>
         <v>70.11</v>
       </c>
       <c r="E12" s="13">
         <v>60</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="24">
         <f>ROUND((E11/87)*100,2)</f>
         <v>75.86</v>
       </c>
       <c r="G12" s="13">
         <v>75</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="24">
         <f>ROUND((G11/87)*100,2)</f>
         <v>89.66</v>
       </c>
       <c r="I12" s="13">
         <v>90</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="24">
         <f>ROUND((I11/87)*100,2)</f>
         <v>90.8</v>
       </c>
       <c r="K12" s="13"/>
-      <c r="L12" s="22">
+      <c r="L12" s="24">
         <f>ROUND((K11/87)*100,2)</f>
         <v>0</v>
       </c>
@@ -2539,21 +2750,21 @@
       <c r="C13" s="12">
         <v>70.11</v>
       </c>
-      <c r="D13" s="22"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="13">
         <v>83.33</v>
       </c>
-      <c r="F13" s="22"/>
+      <c r="F13" s="24"/>
       <c r="G13" s="13">
         <v>90</v>
       </c>
-      <c r="H13" s="22"/>
+      <c r="H13" s="24"/>
       <c r="I13" s="13">
         <v>93.33</v>
       </c>
-      <c r="J13" s="22"/>
+      <c r="J13" s="24"/>
       <c r="K13" s="13"/>
-      <c r="L13" s="22"/>
+      <c r="L13" s="24"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="21"/>
@@ -2563,21 +2774,21 @@
       <c r="C14" s="12">
         <v>70.11</v>
       </c>
-      <c r="D14" s="22"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="13">
         <v>75</v>
       </c>
-      <c r="F14" s="22"/>
+      <c r="F14" s="24"/>
       <c r="G14" s="13">
         <v>100</v>
       </c>
-      <c r="H14" s="22"/>
+      <c r="H14" s="24"/>
       <c r="I14" s="13">
         <v>93.75</v>
       </c>
-      <c r="J14" s="22"/>
+      <c r="J14" s="24"/>
       <c r="K14" s="13"/>
-      <c r="L14" s="22"/>
+      <c r="L14" s="24"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="21"/>
@@ -2587,21 +2798,21 @@
       <c r="C15" s="12">
         <v>70.11</v>
       </c>
-      <c r="D15" s="22"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="13">
         <v>80.95</v>
       </c>
-      <c r="F15" s="22"/>
+      <c r="F15" s="24"/>
       <c r="G15" s="13">
         <v>95.24</v>
       </c>
-      <c r="H15" s="22"/>
+      <c r="H15" s="24"/>
       <c r="I15" s="13">
         <v>85.71</v>
       </c>
-      <c r="J15" s="22"/>
+      <c r="J15" s="24"/>
       <c r="K15" s="13"/>
-      <c r="L15" s="22"/>
+      <c r="L15" s="24"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
@@ -2669,20 +2880,20 @@
         <v>14</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="22">
+      <c r="C22" s="24">
         <v>77</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22">
+      <c r="D22" s="24"/>
+      <c r="E22" s="24">
         <v>78</v>
       </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
@@ -2694,23 +2905,23 @@
       <c r="C23" s="12">
         <v>89.47</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="24">
         <f>ROUND((C22/80)*100,2)</f>
         <v>96.25</v>
       </c>
       <c r="E23" s="13">
         <v>94.74</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="24">
         <f>ROUND((E22/80)*100,2)</f>
         <v>97.5</v>
       </c>
       <c r="G23" s="13"/>
-      <c r="H23" s="22"/>
+      <c r="H23" s="24"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="22"/>
+      <c r="J23" s="24"/>
       <c r="K23" s="13"/>
-      <c r="L23" s="22"/>
+      <c r="L23" s="24"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="21"/>
@@ -2720,17 +2931,17 @@
       <c r="C24" s="12">
         <v>100</v>
       </c>
-      <c r="D24" s="22"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="13">
         <v>100</v>
       </c>
-      <c r="F24" s="22"/>
+      <c r="F24" s="24"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="22"/>
+      <c r="H24" s="24"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="22"/>
+      <c r="J24" s="24"/>
       <c r="K24" s="13"/>
-      <c r="L24" s="22"/>
+      <c r="L24" s="24"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="21"/>
@@ -2740,17 +2951,17 @@
       <c r="C25" s="12">
         <v>93.33</v>
       </c>
-      <c r="D25" s="22"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="13">
         <v>92.86</v>
       </c>
-      <c r="F25" s="22"/>
+      <c r="F25" s="24"/>
       <c r="G25" s="13"/>
-      <c r="H25" s="22"/>
+      <c r="H25" s="24"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="22"/>
+      <c r="J25" s="24"/>
       <c r="K25" s="13"/>
-      <c r="L25" s="22"/>
+      <c r="L25" s="24"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="21"/>
@@ -2760,17 +2971,17 @@
       <c r="C26" s="12">
         <v>100</v>
       </c>
-      <c r="D26" s="22"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="13">
         <v>100</v>
       </c>
-      <c r="F26" s="22"/>
+      <c r="F26" s="24"/>
       <c r="G26" s="13"/>
-      <c r="H26" s="22"/>
+      <c r="H26" s="24"/>
       <c r="I26" s="13"/>
-      <c r="J26" s="22"/>
+      <c r="J26" s="24"/>
       <c r="K26" s="13"/>
-      <c r="L26" s="22"/>
+      <c r="L26" s="24"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
@@ -2793,6 +3004,53 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="L23:L26"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="L12:L15"/>
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
@@ -2809,53 +3067,6 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="L12:L15"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:L27"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="L23:L26"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C4:L4">

--- a/psm1/psm1-progress.xlsx
+++ b/psm1/psm1-progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\@AWS\notes\psm1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3742E3-9655-4A8C-97F4-FCA4A2C63FAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097B5DCA-6599-4870-B44F-4648088E8056}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="55">
   <si>
     <t>Narrative &amp; Exam Guide</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>Final %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model Assesment -2 </t>
   </si>
 </sst>
 </file>
@@ -351,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -390,6 +393,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -411,19 +423,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -431,15 +446,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -900,10 +906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AC35"/>
+  <dimension ref="A2:AO35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -912,48 +918,56 @@
     <col min="2" max="11" width="5.6640625" customWidth="1"/>
     <col min="12" max="12" width="10.6640625" customWidth="1"/>
     <col min="13" max="13" width="11.88671875" customWidth="1"/>
-    <col min="14" max="14" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5546875" customWidth="1"/>
     <col min="15" max="16" width="5.6640625" customWidth="1"/>
-    <col min="17" max="17" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5546875" customWidth="1"/>
     <col min="18" max="19" width="5.6640625" customWidth="1"/>
-    <col min="20" max="20" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5546875" customWidth="1"/>
     <col min="21" max="22" width="5.6640625" customWidth="1"/>
-    <col min="23" max="23" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.5546875" customWidth="1"/>
     <col min="24" max="24" width="7.44140625" customWidth="1"/>
     <col min="25" max="25" width="7.77734375" customWidth="1"/>
-    <col min="26" max="26" width="8.6640625" customWidth="1"/>
-    <col min="27" max="27" width="8.5546875" customWidth="1"/>
-    <col min="28" max="28" width="9.77734375" customWidth="1"/>
+    <col min="26" max="26" width="10.6640625" customWidth="1"/>
+    <col min="27" max="27" width="11.88671875" customWidth="1"/>
+    <col min="28" max="28" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="5.6640625" customWidth="1"/>
+    <col min="31" max="31" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="5.6640625" customWidth="1"/>
+    <col min="34" max="34" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="5.6640625" customWidth="1"/>
+    <col min="37" max="37" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.44140625" customWidth="1"/>
+    <col min="39" max="39" width="7.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -966,84 +980,121 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="Z3" s="6"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="16"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="19"/>
       <c r="L4" s="7"/>
-      <c r="N4" s="28" t="s">
+      <c r="N4" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="7"/>
+      <c r="AB4" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="24"/>
+      <c r="AJ4" s="24"/>
+      <c r="AK4" s="24"/>
+      <c r="AL4" s="24"/>
+      <c r="AM4" s="24"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="14" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="14" t="s">
+      <c r="E5" s="19"/>
+      <c r="F5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="14" t="s">
+      <c r="G5" s="19"/>
+      <c r="H5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="14" t="s">
+      <c r="I5" s="19"/>
+      <c r="J5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="16"/>
+      <c r="K5" s="19"/>
       <c r="L5" s="7"/>
-      <c r="N5" s="29" t="s">
+      <c r="N5" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29" t="s">
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29" t="s">
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29" t="s">
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="7"/>
+      <c r="AB5" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF5" s="16"/>
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI5" s="16"/>
+      <c r="AJ5" s="16"/>
+      <c r="AK5" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL5" s="16"/>
+      <c r="AM5" s="16"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1100,8 +1151,37 @@
         <v>7</v>
       </c>
       <c r="Y6" s="3"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Z6" s="7"/>
+      <c r="AB6" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="14">
+        <v>21</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="14">
+        <v>41</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="14">
+        <v>61</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM6" s="3"/>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -1160,8 +1240,37 @@
         <v>8</v>
       </c>
       <c r="Y7" s="3"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Z7" s="7"/>
+      <c r="AB7" s="14">
+        <v>2</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="14">
+        <v>22</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="14">
+        <v>42</v>
+      </c>
+      <c r="AI7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="14">
+        <v>62</v>
+      </c>
+      <c r="AL7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM7" s="3"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -1214,8 +1323,37 @@
         <v>7</v>
       </c>
       <c r="Y8" s="3"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Z8" s="7"/>
+      <c r="AB8" s="14">
+        <v>3</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="14">
+        <v>23</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="14">
+        <v>43</v>
+      </c>
+      <c r="AI8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="14">
+        <v>63</v>
+      </c>
+      <c r="AL8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM8" s="3"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>4</v>
       </c>
@@ -1272,8 +1410,37 @@
         <v>8</v>
       </c>
       <c r="Y9" s="3"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Z9" s="7"/>
+      <c r="AB9" s="14">
+        <v>4</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="14">
+        <v>24</v>
+      </c>
+      <c r="AF9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="14">
+        <v>44</v>
+      </c>
+      <c r="AI9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="14">
+        <v>64</v>
+      </c>
+      <c r="AL9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM9" s="3"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>5</v>
       </c>
@@ -1330,8 +1497,37 @@
         <v>8</v>
       </c>
       <c r="Y10" s="3"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Z10" s="7"/>
+      <c r="AB10" s="14">
+        <v>5</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="14">
+        <v>25</v>
+      </c>
+      <c r="AF10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="14">
+        <v>45</v>
+      </c>
+      <c r="AI10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="14">
+        <v>65</v>
+      </c>
+      <c r="AL10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM10" s="3"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>6</v>
       </c>
@@ -1388,8 +1584,37 @@
         <v>10</v>
       </c>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Z11" s="7"/>
+      <c r="AB11" s="14">
+        <v>6</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="14">
+        <v>26</v>
+      </c>
+      <c r="AF11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="14">
+        <v>46</v>
+      </c>
+      <c r="AI11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="14">
+        <v>66</v>
+      </c>
+      <c r="AL11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM11" s="3"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>7</v>
       </c>
@@ -1448,8 +1673,37 @@
         <v>8</v>
       </c>
       <c r="Y12" s="3"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Z12" s="7"/>
+      <c r="AB12" s="14">
+        <v>7</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="14">
+        <v>27</v>
+      </c>
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="14">
+        <v>47</v>
+      </c>
+      <c r="AI12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="14">
+        <v>67</v>
+      </c>
+      <c r="AL12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM12" s="3"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -1504,8 +1758,37 @@
         <v>11</v>
       </c>
       <c r="Y13" s="3"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Z13" s="7"/>
+      <c r="AB13" s="14">
+        <v>8</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="14">
+        <v>28</v>
+      </c>
+      <c r="AF13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="14">
+        <v>48</v>
+      </c>
+      <c r="AI13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="14">
+        <v>68</v>
+      </c>
+      <c r="AL13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM13" s="3"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -1560,8 +1843,37 @@
         <v>7</v>
       </c>
       <c r="Y14" s="3"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Z14" s="7"/>
+      <c r="AB14" s="14">
+        <v>9</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="14">
+        <v>29</v>
+      </c>
+      <c r="AF14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="14">
+        <v>49</v>
+      </c>
+      <c r="AI14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="14">
+        <v>69</v>
+      </c>
+      <c r="AL14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM14" s="3"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -1620,35 +1932,60 @@
       <c r="Y15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC15">
-        <f>64/80</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Z15" s="7"/>
+      <c r="AB15" s="14">
+        <v>10</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="14">
+        <v>30</v>
+      </c>
+      <c r="AF15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="14">
+        <v>50</v>
+      </c>
+      <c r="AI15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="14">
+        <v>70</v>
+      </c>
+      <c r="AL15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM15" s="3"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="17">
-        <v>10</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="17">
+      <c r="B16" s="20">
+        <v>10</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="20">
         <v>6</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="17">
-        <v>10</v>
-      </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="17">
-        <v>7</v>
-      </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="17">
+      <c r="E16" s="21"/>
+      <c r="F16" s="20">
+        <v>10</v>
+      </c>
+      <c r="G16" s="21"/>
+      <c r="H16" s="20">
+        <v>7</v>
+      </c>
+      <c r="I16" s="21"/>
+      <c r="J16" s="20">
         <v>6</v>
       </c>
-      <c r="K16" s="18"/>
+      <c r="K16" s="21"/>
       <c r="L16" s="8"/>
       <c r="N16" s="4">
         <v>11</v>
@@ -1680,40 +2017,65 @@
       <c r="Y16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AC16">
-        <f>0.85*80</f>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z16" s="8"/>
+      <c r="AB16" s="14">
+        <v>11</v>
+      </c>
+      <c r="AC16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="14">
+        <v>31</v>
+      </c>
+      <c r="AF16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="14">
+        <v>51</v>
+      </c>
+      <c r="AI16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="14">
+        <v>71</v>
+      </c>
+      <c r="AL16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM16" s="3"/>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="20">
         <f>(B16/10)*100</f>
         <v>100</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="17">
+      <c r="C17" s="21"/>
+      <c r="D17" s="20">
         <f t="shared" ref="D17:J17" si="0">(D16/10)*100</f>
         <v>60</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="17">
+      <c r="E17" s="21"/>
+      <c r="F17" s="20">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="17">
+      <c r="G17" s="21"/>
+      <c r="H17" s="20">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="17">
+      <c r="I17" s="21"/>
+      <c r="J17" s="20">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="K17" s="18"/>
+      <c r="K17" s="21"/>
       <c r="L17" s="8"/>
       <c r="N17" s="4">
         <v>12</v>
@@ -1745,24 +2107,55 @@
         <v>10</v>
       </c>
       <c r="Y17" s="3"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z17" s="8"/>
+      <c r="AB17" s="14">
+        <v>12</v>
+      </c>
+      <c r="AC17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE17" s="14">
+        <v>32</v>
+      </c>
+      <c r="AF17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="14">
+        <v>52</v>
+      </c>
+      <c r="AI17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="14">
+        <v>72</v>
+      </c>
+      <c r="AL17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM17" s="3"/>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="17">
         <f>AVERAGE(B17:K17)</f>
         <v>78</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="19"/>
       <c r="L18" s="8"/>
       <c r="N18" s="4">
         <v>13</v>
@@ -1792,8 +2185,37 @@
         <v>8</v>
       </c>
       <c r="Y18" s="3"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z18" s="8"/>
+      <c r="AB18" s="14">
+        <v>13</v>
+      </c>
+      <c r="AC18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="14">
+        <v>33</v>
+      </c>
+      <c r="AF18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="14">
+        <v>53</v>
+      </c>
+      <c r="AI18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="14">
+        <v>73</v>
+      </c>
+      <c r="AL18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM18" s="3"/>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
       <c r="N19" s="4">
         <v>14</v>
       </c>
@@ -1824,8 +2246,36 @@
         <v>10</v>
       </c>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AB19" s="14">
+        <v>14</v>
+      </c>
+      <c r="AC19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="14">
+        <v>34</v>
+      </c>
+      <c r="AF19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="14">
+        <v>54</v>
+      </c>
+      <c r="AI19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="14">
+        <v>74</v>
+      </c>
+      <c r="AL19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM19" s="3"/>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
       <c r="N20" s="4">
         <v>15</v>
       </c>
@@ -1856,21 +2306,49 @@
         <v>10</v>
       </c>
       <c r="Y20" s="3"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
+      <c r="AB20" s="14">
+        <v>15</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="14">
+        <v>35</v>
+      </c>
+      <c r="AF20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="14">
+        <v>55</v>
+      </c>
+      <c r="AI20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="14">
+        <v>75</v>
+      </c>
+      <c r="AL20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM20" s="3"/>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="16"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="19"/>
       <c r="N21" s="4">
         <v>16</v>
       </c>
@@ -1899,31 +2377,59 @@
         <v>11</v>
       </c>
       <c r="Y21" s="3"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AB21" s="14">
+        <v>16</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="14">
+        <v>36</v>
+      </c>
+      <c r="AF21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="14">
+        <v>56</v>
+      </c>
+      <c r="AI21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="14">
+        <v>76</v>
+      </c>
+      <c r="AL21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM21" s="3"/>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="14" t="s">
+      <c r="C22" s="19"/>
+      <c r="D22" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="14" t="s">
+      <c r="E22" s="19"/>
+      <c r="F22" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="16"/>
-      <c r="H22" s="14" t="s">
+      <c r="G22" s="19"/>
+      <c r="H22" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="16"/>
-      <c r="J22" s="14" t="s">
+      <c r="I22" s="19"/>
+      <c r="J22" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="16"/>
+      <c r="K22" s="19"/>
       <c r="N22" s="4">
         <v>17</v>
       </c>
@@ -1954,8 +2460,36 @@
         <v>7</v>
       </c>
       <c r="Y22" s="3"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AB22" s="14">
+        <v>17</v>
+      </c>
+      <c r="AC22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="14">
+        <v>37</v>
+      </c>
+      <c r="AF22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="14">
+        <v>57</v>
+      </c>
+      <c r="AI22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="14">
+        <v>77</v>
+      </c>
+      <c r="AL22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM22" s="3"/>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>1</v>
       </c>
@@ -2009,8 +2543,36 @@
         <v>47</v>
       </c>
       <c r="Y23" s="3"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AB23" s="14">
+        <v>18</v>
+      </c>
+      <c r="AC23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="14">
+        <v>38</v>
+      </c>
+      <c r="AF23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="14">
+        <v>58</v>
+      </c>
+      <c r="AI23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="14">
+        <v>78</v>
+      </c>
+      <c r="AL23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM23" s="3"/>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>2</v>
       </c>
@@ -2066,8 +2628,40 @@
         <v>7</v>
       </c>
       <c r="Y24" s="3"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AB24" s="14">
+        <v>19</v>
+      </c>
+      <c r="AC24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="14">
+        <v>39</v>
+      </c>
+      <c r="AF24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="14">
+        <v>59</v>
+      </c>
+      <c r="AI24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="14">
+        <v>79</v>
+      </c>
+      <c r="AL24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM24" s="3"/>
+      <c r="AO24">
+        <f>COUNT(AB6:AB25)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>3</v>
       </c>
@@ -2121,8 +2715,36 @@
         <v>47</v>
       </c>
       <c r="Y25" s="3"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AB25" s="14">
+        <v>20</v>
+      </c>
+      <c r="AC25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="14">
+        <v>40</v>
+      </c>
+      <c r="AF25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="14">
+        <v>60</v>
+      </c>
+      <c r="AI25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="14">
+        <v>80</v>
+      </c>
+      <c r="AL25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM25" s="3"/>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>4</v>
       </c>
@@ -2149,28 +2771,55 @@
       <c r="M26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N26" s="30">
+      <c r="N26" s="15">
         <v>13</v>
       </c>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30">
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15">
         <v>16</v>
       </c>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30">
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15">
         <v>17</v>
       </c>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30">
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15">
         <v>18</v>
       </c>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="30"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="AA26" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB26" s="15">
+        <f>COUNTBLANK(AD6:AD25)</f>
+        <v>19</v>
+      </c>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="15">
+        <f t="shared" ref="AE26" si="1">COUNTBLANK(AG6:AG25)</f>
+        <v>20</v>
+      </c>
+      <c r="AF26" s="15"/>
+      <c r="AG26" s="15"/>
+      <c r="AH26" s="15">
+        <f t="shared" ref="AH26" si="2">COUNTBLANK(AJ6:AJ25)</f>
+        <v>20</v>
+      </c>
+      <c r="AI26" s="15"/>
+      <c r="AJ26" s="15"/>
+      <c r="AK26" s="15">
+        <f t="shared" ref="AK26" si="3">COUNTBLANK(AM6:AM25)</f>
+        <v>20</v>
+      </c>
+      <c r="AL26" s="15"/>
+      <c r="AM26" s="15"/>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>5</v>
       </c>
@@ -2199,32 +2848,59 @@
       <c r="M27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N27" s="30">
+      <c r="N27" s="15">
         <f>(N26/20)*100</f>
         <v>65</v>
       </c>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30">
-        <f t="shared" ref="Q27" si="1">(Q26/20)*100</f>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15">
+        <f t="shared" ref="Q27" si="4">(Q26/20)*100</f>
         <v>80</v>
       </c>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30">
-        <f t="shared" ref="T27" si="2">(T26/20)*100</f>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15">
+        <f t="shared" ref="T27" si="5">(T26/20)*100</f>
         <v>85</v>
       </c>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30">
-        <f t="shared" ref="W27" si="3">(W26/20)*100</f>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15">
+        <f t="shared" ref="W27" si="6">(W26/20)*100</f>
         <v>90</v>
       </c>
-      <c r="X27" s="30"/>
-      <c r="Y27" s="30"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="AA27" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB27" s="15">
+        <f>(AB26/COUNT(AB6:AB25))*100</f>
+        <v>95</v>
+      </c>
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="15">
+        <f t="shared" ref="AE27" si="7">(AE26/COUNT(AE6:AE25))*100</f>
+        <v>100</v>
+      </c>
+      <c r="AF27" s="15"/>
+      <c r="AG27" s="15"/>
+      <c r="AH27" s="15">
+        <f t="shared" ref="AH27" si="8">(AH26/COUNT(AH6:AH25))*100</f>
+        <v>100</v>
+      </c>
+      <c r="AI27" s="15"/>
+      <c r="AJ27" s="15"/>
+      <c r="AK27" s="15">
+        <f t="shared" ref="AK27" si="9">(AK26/COUNT(AK6:AK25))*100</f>
+        <v>100</v>
+      </c>
+      <c r="AL27" s="15"/>
+      <c r="AM27" s="15"/>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>6</v>
       </c>
@@ -2251,23 +2927,41 @@
       <c r="M28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="N28" s="30">
+      <c r="N28" s="15">
         <f>(SUM(N26:Y26)/80)*100</f>
         <v>80</v>
       </c>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="30"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="15"/>
+      <c r="AA28" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB28" s="15">
+        <f>AVERAGE(AB27:AM27)</f>
+        <v>98.75</v>
+      </c>
+      <c r="AC28" s="15"/>
+      <c r="AD28" s="15"/>
+      <c r="AE28" s="15"/>
+      <c r="AF28" s="15"/>
+      <c r="AG28" s="15"/>
+      <c r="AH28" s="15"/>
+      <c r="AI28" s="15"/>
+      <c r="AJ28" s="15"/>
+      <c r="AK28" s="15"/>
+      <c r="AL28" s="15"/>
+      <c r="AM28" s="15"/>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>7</v>
       </c>
@@ -2294,7 +2988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>8</v>
       </c>
@@ -2319,7 +3013,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>9</v>
       </c>
@@ -2344,7 +3038,7 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>10</v>
       </c>
@@ -2375,103 +3069,98 @@
       <c r="A33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="17">
-        <v>10</v>
-      </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="17">
-        <v>10</v>
-      </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="17">
-        <v>10</v>
-      </c>
-      <c r="G33" s="18"/>
-      <c r="H33" s="17">
-        <v>10</v>
-      </c>
-      <c r="I33" s="18"/>
-      <c r="J33" s="17">
+      <c r="B33" s="20">
+        <v>10</v>
+      </c>
+      <c r="C33" s="21"/>
+      <c r="D33" s="20">
+        <v>10</v>
+      </c>
+      <c r="E33" s="21"/>
+      <c r="F33" s="20">
+        <v>10</v>
+      </c>
+      <c r="G33" s="21"/>
+      <c r="H33" s="20">
+        <v>10</v>
+      </c>
+      <c r="I33" s="21"/>
+      <c r="J33" s="20">
         <v>6</v>
       </c>
-      <c r="K33" s="18"/>
+      <c r="K33" s="21"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="17">
+      <c r="B34" s="20">
         <f>(B33/10)*100</f>
         <v>100</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="17">
-        <f t="shared" ref="D34" si="4">(D33/10)*100</f>
+      <c r="C34" s="21"/>
+      <c r="D34" s="20">
+        <f t="shared" ref="D34" si="10">(D33/10)*100</f>
         <v>100</v>
       </c>
-      <c r="E34" s="18"/>
-      <c r="F34" s="17">
-        <f t="shared" ref="F34" si="5">(F33/10)*100</f>
+      <c r="E34" s="21"/>
+      <c r="F34" s="20">
+        <f t="shared" ref="F34" si="11">(F33/10)*100</f>
         <v>100</v>
       </c>
-      <c r="G34" s="18"/>
-      <c r="H34" s="17">
-        <f t="shared" ref="H34" si="6">(H33/10)*100</f>
+      <c r="G34" s="21"/>
+      <c r="H34" s="20">
+        <f t="shared" ref="H34" si="12">(H33/10)*100</f>
         <v>100</v>
       </c>
-      <c r="I34" s="18"/>
-      <c r="J34" s="17">
-        <f t="shared" ref="J34" si="7">(J33/10)*100</f>
+      <c r="I34" s="21"/>
+      <c r="J34" s="20">
+        <f t="shared" ref="J34" si="13">(J33/10)*100</f>
         <v>60</v>
       </c>
-      <c r="K34" s="18"/>
+      <c r="K34" s="21"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="14">
+      <c r="B35" s="17">
         <f>AVERAGE(B34:K34)</f>
         <v>92</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="16"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="Q27:S27"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="N28:Y28"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="W26:Y26"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F16:G16"/>
+  <mergeCells count="63">
+    <mergeCell ref="AB28:AM28"/>
+    <mergeCell ref="AB26:AD26"/>
+    <mergeCell ref="AE26:AG26"/>
+    <mergeCell ref="AH26:AJ26"/>
+    <mergeCell ref="AK26:AM26"/>
+    <mergeCell ref="AB27:AD27"/>
+    <mergeCell ref="AE27:AG27"/>
+    <mergeCell ref="AH27:AJ27"/>
+    <mergeCell ref="AK27:AM27"/>
+    <mergeCell ref="N4:Y4"/>
+    <mergeCell ref="AB4:AM4"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="AE5:AG5"/>
+    <mergeCell ref="AH5:AJ5"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="B35:K35"/>
     <mergeCell ref="A2:W2"/>
     <mergeCell ref="H33:I33"/>
@@ -2488,13 +3177,32 @@
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="N4:Y4"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="W26:Y26"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="N28:Y28"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2507,7 +3215,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:L27"/>
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2518,191 +3226,193 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="23"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="29"/>
     </row>
     <row r="2" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="22" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="22" t="s">
+      <c r="F2" s="29"/>
+      <c r="G2" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="22" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="22" t="s">
+      <c r="J2" s="29"/>
+      <c r="K2" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="23"/>
+      <c r="L2" s="29"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="26">
+      <c r="B3" s="29"/>
+      <c r="C3" s="30">
         <v>24</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="26">
+      <c r="D3" s="31"/>
+      <c r="E3" s="30">
         <v>27</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="26">
+      <c r="F3" s="31"/>
+      <c r="G3" s="30">
         <v>29</v>
       </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="26">
+      <c r="H3" s="31"/>
+      <c r="I3" s="30">
         <v>0</v>
       </c>
-      <c r="J3" s="27"/>
-      <c r="K3" s="26">
+      <c r="J3" s="31"/>
+      <c r="K3" s="30">
         <v>0</v>
       </c>
-      <c r="L3" s="27"/>
+      <c r="L3" s="31"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="26">
+      <c r="B4" s="29"/>
+      <c r="C4" s="30">
         <f>ROUND((C3/30)*100,2)</f>
         <v>80</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="26">
+      <c r="D4" s="31"/>
+      <c r="E4" s="30">
         <f t="shared" ref="E4" si="0">ROUND((E3/30)*100,2)</f>
         <v>90</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="26">
-        <f t="shared" ref="G4" si="1">ROUND((G3/30)*100,2)</f>
+      <c r="F4" s="31"/>
+      <c r="G4" s="30">
+        <f t="shared" ref="G4:K4" si="1">ROUND((G3/30)*100,2)</f>
         <v>96.67</v>
       </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="26">
+      <c r="H4" s="31"/>
+      <c r="I4" s="30">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="27"/>
-      <c r="K4" s="26">
+      <c r="J4" s="31"/>
+      <c r="K4" s="30">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L4" s="27"/>
+      <c r="L4" s="31"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="22">
+      <c r="B5" s="29"/>
+      <c r="C5" s="27">
         <f>ROUND(AVERAGE(C4:G4),2)</f>
         <v>88.89</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="23"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="29"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21" t="s">
+      <c r="D10" s="25"/>
+      <c r="E10" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21" t="s">
+      <c r="F10" s="25"/>
+      <c r="G10" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21" t="s">
+      <c r="H10" s="25"/>
+      <c r="I10" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21" t="s">
+      <c r="J10" s="25"/>
+      <c r="K10" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="L10" s="21"/>
+      <c r="L10" s="25"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="24">
+      <c r="B11" s="25"/>
+      <c r="C11" s="26">
         <v>61</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24">
+      <c r="D11" s="26"/>
+      <c r="E11" s="26">
         <v>66</v>
       </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24">
+      <c r="F11" s="26"/>
+      <c r="G11" s="26">
         <v>78</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24">
+      <c r="H11" s="26"/>
+      <c r="I11" s="26">
         <v>79</v>
       </c>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24">
+      <c r="J11" s="26"/>
+      <c r="K11" s="26">
         <v>0</v>
       </c>
-      <c r="L11" s="24"/>
+      <c r="L11" s="26"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="25" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -2711,192 +3421,192 @@
       <c r="C12" s="12">
         <v>70.11</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="26">
         <f>ROUND((C11/87)*100,2)</f>
         <v>70.11</v>
       </c>
       <c r="E12" s="13">
         <v>60</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="26">
         <f>ROUND((E11/87)*100,2)</f>
         <v>75.86</v>
       </c>
       <c r="G12" s="13">
         <v>75</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="26">
         <f>ROUND((G11/87)*100,2)</f>
         <v>89.66</v>
       </c>
       <c r="I12" s="13">
         <v>90</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="26">
         <f>ROUND((I11/87)*100,2)</f>
         <v>90.8</v>
       </c>
       <c r="K12" s="13"/>
-      <c r="L12" s="24">
+      <c r="L12" s="26">
         <f>ROUND((K11/87)*100,2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="12">
         <v>70.11</v>
       </c>
-      <c r="D13" s="24"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="13">
         <v>83.33</v>
       </c>
-      <c r="F13" s="24"/>
+      <c r="F13" s="26"/>
       <c r="G13" s="13">
         <v>90</v>
       </c>
-      <c r="H13" s="24"/>
+      <c r="H13" s="26"/>
       <c r="I13" s="13">
         <v>93.33</v>
       </c>
-      <c r="J13" s="24"/>
+      <c r="J13" s="26"/>
       <c r="K13" s="13"/>
-      <c r="L13" s="24"/>
+      <c r="L13" s="26"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="12">
         <v>70.11</v>
       </c>
-      <c r="D14" s="24"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="13">
         <v>75</v>
       </c>
-      <c r="F14" s="24"/>
+      <c r="F14" s="26"/>
       <c r="G14" s="13">
         <v>100</v>
       </c>
-      <c r="H14" s="24"/>
+      <c r="H14" s="26"/>
       <c r="I14" s="13">
         <v>93.75</v>
       </c>
-      <c r="J14" s="24"/>
+      <c r="J14" s="26"/>
       <c r="K14" s="13"/>
-      <c r="L14" s="24"/>
+      <c r="L14" s="26"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="12">
         <v>70.11</v>
       </c>
-      <c r="D15" s="24"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="13">
         <v>80.95</v>
       </c>
-      <c r="F15" s="24"/>
+      <c r="F15" s="26"/>
       <c r="G15" s="13">
         <v>95.24</v>
       </c>
-      <c r="H15" s="24"/>
+      <c r="H15" s="26"/>
       <c r="I15" s="13">
         <v>85.71</v>
       </c>
-      <c r="J15" s="24"/>
+      <c r="J15" s="26"/>
       <c r="K15" s="13"/>
-      <c r="L15" s="24"/>
+      <c r="L15" s="26"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21">
+      <c r="B16" s="25"/>
+      <c r="C16" s="25">
         <f>ROUND(AVERAGE(D12,F12,H12,J12),2)</f>
         <v>81.61</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21" t="s">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21" t="s">
+      <c r="F21" s="25"/>
+      <c r="G21" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21" t="s">
+      <c r="H21" s="25"/>
+      <c r="I21" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21" t="s">
+      <c r="J21" s="25"/>
+      <c r="K21" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="L21" s="21"/>
+      <c r="L21" s="25"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="24">
+      <c r="B22" s="25"/>
+      <c r="C22" s="26">
         <v>77</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24">
+      <c r="D22" s="26"/>
+      <c r="E22" s="26">
         <v>78</v>
       </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="25" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="11" t="s">
@@ -2905,152 +3615,105 @@
       <c r="C23" s="12">
         <v>89.47</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="26">
         <f>ROUND((C22/80)*100,2)</f>
         <v>96.25</v>
       </c>
       <c r="E23" s="13">
         <v>94.74</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="26">
         <f>ROUND((E22/80)*100,2)</f>
         <v>97.5</v>
       </c>
       <c r="G23" s="13"/>
-      <c r="H23" s="24"/>
+      <c r="H23" s="26"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="24"/>
+      <c r="J23" s="26"/>
       <c r="K23" s="13"/>
-      <c r="L23" s="24"/>
+      <c r="L23" s="26"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="12">
         <v>100</v>
       </c>
-      <c r="D24" s="24"/>
+      <c r="D24" s="26"/>
       <c r="E24" s="13">
         <v>100</v>
       </c>
-      <c r="F24" s="24"/>
+      <c r="F24" s="26"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="24"/>
+      <c r="H24" s="26"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="24"/>
+      <c r="J24" s="26"/>
       <c r="K24" s="13"/>
-      <c r="L24" s="24"/>
+      <c r="L24" s="26"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="12">
         <v>93.33</v>
       </c>
-      <c r="D25" s="24"/>
+      <c r="D25" s="26"/>
       <c r="E25" s="13">
         <v>92.86</v>
       </c>
-      <c r="F25" s="24"/>
+      <c r="F25" s="26"/>
       <c r="G25" s="13"/>
-      <c r="H25" s="24"/>
+      <c r="H25" s="26"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="24"/>
+      <c r="J25" s="26"/>
       <c r="K25" s="13"/>
-      <c r="L25" s="24"/>
+      <c r="L25" s="26"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C26" s="12">
         <v>100</v>
       </c>
-      <c r="D26" s="24"/>
+      <c r="D26" s="26"/>
       <c r="E26" s="13">
         <v>100</v>
       </c>
-      <c r="F26" s="24"/>
+      <c r="F26" s="26"/>
       <c r="G26" s="13"/>
-      <c r="H26" s="24"/>
+      <c r="H26" s="26"/>
       <c r="I26" s="13"/>
-      <c r="J26" s="24"/>
+      <c r="J26" s="26"/>
       <c r="K26" s="13"/>
-      <c r="L26" s="24"/>
+      <c r="L26" s="26"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21">
+      <c r="B27" s="25"/>
+      <c r="C27" s="25">
         <f>ROUND(AVERAGE(D23),2)</f>
         <v>96.25</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:L27"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="L23:L26"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="L12:L15"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
@@ -3067,6 +3730,53 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="L12:L15"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="L23:L26"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C4:L4">
